--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1582813.005085271</v>
+        <v>-1585673.818877563</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>232.2791855053266</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>143.5013688276108</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>145.1941197292625</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>102.8511758218329</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>64.94639782365007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>47.06906423822968</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>212.5689651179052</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>111.2254363169657</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>16.38111296691937</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>47.32891336229404</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>52.74639264239073</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>163.5176918809201</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>95.35489802926263</v>
+        <v>93.6931260977784</v>
       </c>
       <c r="G8" t="n">
-        <v>11.74167907658358</v>
+        <v>11.74167907658357</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.8724504177535</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.438182924131</v>
+        <v>44.00401502695056</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696367</v>
+        <v>93.83392671696366</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906613</v>
+        <v>23.79630926906606</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>136.2924232858444</v>
       </c>
       <c r="T9" t="n">
         <v>192.4848946346715</v>
       </c>
       <c r="U9" t="n">
-        <v>125.6050741394689</v>
+        <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>68.13678788633347</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>125.8385173784662</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>107.4132560413785</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>105.4699075169636</v>
       </c>
       <c r="S10" t="n">
-        <v>196.1788263911949</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722637</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1421,13 +1421,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560509</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.8566599330997</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701362</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>217.8886059122772</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>238.7641120987932</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>59.44001103519365</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>75.2135622723823</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>186.0007748420832</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F31" t="n">
-        <v>28.23631843387907</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541849</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652629</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.010065354185</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4135,10 +4135,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4147,13 +4147,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C2" t="n">
-        <v>1054.855520006025</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D2" t="n">
-        <v>820.2300801016547</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E2" t="n">
-        <v>820.2300801016547</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F2" t="n">
-        <v>553.8524235344767</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672986</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>453.9627644854196</v>
+        <v>332.9468261321803</v>
       </c>
       <c r="C3" t="n">
-        <v>453.9627644854196</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="D3" t="n">
-        <v>305.0283548241683</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F3" t="n">
         <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>889.8589092135601</v>
+        <v>691.074259448092</v>
       </c>
       <c r="U3" t="n">
-        <v>661.7230632503736</v>
+        <v>691.074259448092</v>
       </c>
       <c r="V3" t="n">
-        <v>661.7230632503736</v>
+        <v>587.184182860382</v>
       </c>
       <c r="W3" t="n">
-        <v>661.7230632503736</v>
+        <v>332.9468261321803</v>
       </c>
       <c r="X3" t="n">
-        <v>661.7230632503736</v>
+        <v>332.9468261321803</v>
       </c>
       <c r="Y3" t="n">
-        <v>453.9627644854196</v>
+        <v>332.9468261321803</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>537.6274924209796</v>
+        <v>68.64161973166563</v>
       </c>
       <c r="C4" t="n">
-        <v>472.0250703768886</v>
+        <v>68.64161973166563</v>
       </c>
       <c r="D4" t="n">
-        <v>321.9084309645528</v>
+        <v>68.64161973166563</v>
       </c>
       <c r="E4" t="n">
-        <v>321.9084309645528</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512193</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512193</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512193</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2759572512193</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="W4" t="n">
-        <v>719.2759572512193</v>
+        <v>296.631170629683</v>
       </c>
       <c r="X4" t="n">
-        <v>719.2759572512193</v>
+        <v>68.64161973166563</v>
       </c>
       <c r="Y4" t="n">
-        <v>719.2759572512193</v>
+        <v>68.64161973166563</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716689</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716689</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716689</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044908</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>248.7770495552874</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>235.8132367818429</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="W5" t="n">
-        <v>788.477863438847</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="X5" t="n">
-        <v>788.477863438847</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716689</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>405.5125167142792</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>405.5125167142792</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>405.5125167142792</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>405.5125167142792</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>258.9779587411641</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>46.96951069551282</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699346</v>
+        <v>121.653531464967</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302313</v>
+        <v>268.3979551252636</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267552</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293602</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1038.308941251561</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1038.308941251561</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>841.4998628829985</v>
+        <v>840.076354622418</v>
       </c>
       <c r="U6" t="n">
-        <v>613.364016919812</v>
+        <v>840.076354622418</v>
       </c>
       <c r="V6" t="n">
-        <v>613.364016919812</v>
+        <v>604.9242463906753</v>
       </c>
       <c r="W6" t="n">
-        <v>613.364016919812</v>
+        <v>604.9242463906753</v>
       </c>
       <c r="X6" t="n">
-        <v>405.5125167142792</v>
+        <v>397.0727461851425</v>
       </c>
       <c r="Y6" t="n">
-        <v>405.5125167142792</v>
+        <v>189.3124474201885</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.6190652185647</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>307.6190652185647</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>307.6190652185647</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4750,25 +4750,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165363</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165363</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U7" t="n">
-        <v>581.6908288493582</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="V7" t="n">
-        <v>528.4116443620949</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="W7" t="n">
-        <v>528.4116443620949</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="X7" t="n">
-        <v>528.4116443620949</v>
+        <v>367.9149609686633</v>
       </c>
       <c r="Y7" t="n">
-        <v>307.6190652185647</v>
+        <v>202.7455752303602</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>881.922978651955</v>
+        <v>153.0162055982432</v>
       </c>
       <c r="C8" t="n">
-        <v>512.9604617115433</v>
+        <v>153.0162055982432</v>
       </c>
       <c r="D8" t="n">
-        <v>154.6947631047928</v>
+        <v>153.0162055982432</v>
       </c>
       <c r="E8" t="n">
-        <v>154.6947631047928</v>
+        <v>153.0162055982432</v>
       </c>
       <c r="F8" t="n">
-        <v>58.37668428735579</v>
+        <v>58.37668428735588</v>
       </c>
       <c r="G8" t="n">
-        <v>46.51640239181683</v>
+        <v>46.51640239181692</v>
       </c>
       <c r="H8" t="n">
-        <v>46.51640239181683</v>
+        <v>46.51640239181692</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181683</v>
+        <v>46.51640239181692</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229159</v>
+        <v>166.4989367229162</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677486</v>
+        <v>397.0601716677494</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937565</v>
+        <v>719.9935330937576</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721575</v>
+        <v>1110.988557721577</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999418</v>
+        <v>1512.924098999421</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830554</v>
+        <v>1879.125171830557</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.16831427172</v>
+        <v>2157.168314271724</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.79438825758</v>
+        <v>2317.794388257584</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590841</v>
+        <v>2325.820119590846</v>
       </c>
       <c r="S8" t="n">
-        <v>2325.820119590841</v>
+        <v>2196.656028259782</v>
       </c>
       <c r="T8" t="n">
-        <v>2325.820119590841</v>
+        <v>1987.052678512941</v>
       </c>
       <c r="U8" t="n">
-        <v>2325.820119590841</v>
+        <v>1987.052678512941</v>
       </c>
       <c r="V8" t="n">
-        <v>1994.757232247271</v>
+        <v>1655.989791169371</v>
       </c>
       <c r="W8" t="n">
-        <v>1641.988576977157</v>
+        <v>1303.221135899257</v>
       </c>
       <c r="X8" t="n">
-        <v>1268.522818716077</v>
+        <v>929.7553776381767</v>
       </c>
       <c r="Y8" t="n">
-        <v>1268.522818716077</v>
+        <v>539.616045662365</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3005198785846</v>
+        <v>692.4082165547823</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8474905974576</v>
+        <v>517.9551872736553</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9130809362064</v>
+        <v>369.020777612404</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6756259307508</v>
+        <v>209.7833226069485</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1410679576358</v>
+        <v>209.7833226069485</v>
       </c>
       <c r="G9" t="n">
         <v>165.3348225797257</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117655</v>
+        <v>70.55307842117656</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181683</v>
+        <v>46.51640239181692</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977922</v>
+        <v>223.9894559067842</v>
       </c>
       <c r="K9" t="n">
-        <v>402.9718154420763</v>
+        <v>392.1194303282873</v>
       </c>
       <c r="L9" t="n">
-        <v>675.3658557344904</v>
+        <v>664.5134706207018</v>
       </c>
       <c r="M9" t="n">
-        <v>1012.593720931154</v>
+        <v>1001.741335817366</v>
       </c>
       <c r="N9" t="n">
-        <v>1373.15564918249</v>
+        <v>1362.303264068702</v>
       </c>
       <c r="O9" t="n">
-        <v>1680.779576843378</v>
+        <v>1669.92719172959</v>
       </c>
       <c r="P9" t="n">
-        <v>2223.619974106031</v>
+        <v>1997.684836227399</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590841</v>
+        <v>2307.8614965707</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590841</v>
+        <v>2325.820119590846</v>
       </c>
       <c r="S9" t="n">
-        <v>2325.820119590841</v>
+        <v>2188.1510051607</v>
       </c>
       <c r="T9" t="n">
-        <v>2131.390933091173</v>
+        <v>1993.721818661032</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.517120829084</v>
+        <v>1765.624817505281</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.365012597341</v>
+        <v>1530.472709273539</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.127655869139</v>
+        <v>1276.235352545337</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.276155663606</v>
+        <v>1068.383852339804</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.515856898653</v>
+        <v>860.6235535748503</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.6260159054191</v>
+        <v>223.8396790864755</v>
       </c>
       <c r="C10" t="n">
-        <v>173.6260159054191</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="D10" t="n">
-        <v>173.6260159054191</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="E10" t="n">
-        <v>173.6260159054191</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="F10" t="n">
-        <v>46.51640239181683</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="G10" t="n">
-        <v>46.51640239181683</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181683</v>
+        <v>155.0146408174518</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181683</v>
+        <v>46.51640239181692</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909538</v>
+        <v>65.89540801909558</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736016</v>
+        <v>227.577903973602</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632613</v>
+        <v>490.0022680632619</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794047</v>
+        <v>777.0810884794055</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620619</v>
+        <v>1062.76843262062</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257115</v>
+        <v>1310.630639257116</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325117</v>
+        <v>1499.198894325118</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718231</v>
+        <v>1546.318699718232</v>
       </c>
       <c r="R10" t="n">
-        <v>1546.318699718231</v>
+        <v>1439.783439600087</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.158269020054</v>
+        <v>1439.783439600087</v>
       </c>
       <c r="T10" t="n">
-        <v>1348.158269020054</v>
+        <v>1216.429428829628</v>
       </c>
       <c r="U10" t="n">
-        <v>1348.158269020054</v>
+        <v>927.3062973339098</v>
       </c>
       <c r="V10" t="n">
-        <v>1093.473780814167</v>
+        <v>672.621809128023</v>
       </c>
       <c r="W10" t="n">
-        <v>804.0566107772063</v>
+        <v>672.621809128023</v>
       </c>
       <c r="X10" t="n">
-        <v>576.0670598791889</v>
+        <v>444.6322582300056</v>
       </c>
       <c r="Y10" t="n">
-        <v>355.2744807356588</v>
+        <v>223.8396790864755</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,16 +5075,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,19 +5276,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5306,19 +5306,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1824.417283336614</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5604,16 +5604,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1955.886674680705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,13 +5783,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5829,13 +5829,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438176</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>377.6556127449245</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>377.6556127449245</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>377.6556127449245</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6072,7 +6072,7 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
         <v>680.0291294438176</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6446,34 +6446,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>264.0500279773688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6719,16 +6719,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,25 +7093,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7129,13 +7129,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345484</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,10 +7363,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150025</v>
@@ -7555,10 +7555,10 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7737,16 +7737,16 @@
         <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319314</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656807</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150012</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942643</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580102</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345464</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7825,31 +7825,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.38532953243</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775173</v>
+        <v>65.34295837775129</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>28.18495819153173</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.0530405058528</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>101.2074628168609</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864777</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>122.4038561153564</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>4.663244237426714</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>238.7086800719757</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776173</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>205.7395998898022</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.728484105318785e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.9753202488376</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>68.29586847696697</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>47.4203622904509</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>106.0841272570752</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>210.9709121168618</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>39.70888054695391</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F31" t="n">
-        <v>117.1847295890522</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-4.902744876744691e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1282234.885881982</v>
+        <v>1282234.885881981</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1282234.885881982</v>
+        <v>1282234.885881981</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1282234.885881982</v>
+        <v>1282234.885881981</v>
       </c>
     </row>
     <row r="11">
@@ -26314,16 +26314,16 @@
         <v>118476.4986260253</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
         <v>141250.654945751</v>
       </c>
       <c r="F2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="G2" t="n">
         <v>141250.6549457511</v>
@@ -26338,16 +26338,16 @@
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>141250.654945751</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="M2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="N2" t="n">
         <v>143682.3097262496</v>
-      </c>
-      <c r="M2" t="n">
-        <v>143682.3097262496</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
         <v>143682.3097262497</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.522851298</v>
+        <v>331437.5228512993</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424113</v>
+        <v>563905.7843424103</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.145138800411873e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201202</v>
+        <v>99845.14336201224</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569558</v>
+        <v>147342.6769569555</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169912.6533260401</v>
+        <v>169912.6533260399</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>158321.5536878358</v>
+        <v>158321.5536878355</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680572</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680574</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
+        <v>11776.9762168058</v>
+      </c>
+      <c r="J4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11776.97621680586</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.83547989934</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.83547989931</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989931</v>
+        <v>19767.83547989928</v>
       </c>
       <c r="O4" t="n">
         <v>19767.8354798993</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989928</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.7954654358</v>
+        <v>88290.79546543591</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-794571.9384954743</v>
+        <v>-794932.0215111914</v>
       </c>
       <c r="C6" t="n">
-        <v>-171487.558741194</v>
+        <v>-171487.5587411941</v>
       </c>
       <c r="D6" t="n">
-        <v>-434367.5622783201</v>
+        <v>-434367.5622783211</v>
       </c>
       <c r="E6" t="n">
-        <v>-535554.6354373731</v>
+        <v>-535589.3733628078</v>
       </c>
       <c r="F6" t="n">
-        <v>28351.14890503822</v>
+        <v>28316.41097960241</v>
       </c>
       <c r="G6" t="n">
-        <v>28351.14890503814</v>
+        <v>28316.41097960244</v>
       </c>
       <c r="H6" t="n">
-        <v>28351.14890503812</v>
+        <v>28316.41097960244</v>
       </c>
       <c r="I6" t="n">
-        <v>28351.14890503816</v>
+        <v>28316.41097960251</v>
       </c>
       <c r="J6" t="n">
-        <v>-40648.00551407594</v>
+        <v>-40682.7434395116</v>
       </c>
       <c r="K6" t="n">
-        <v>28351.14890503816</v>
+        <v>28316.41097960247</v>
       </c>
       <c r="L6" t="n">
-        <v>-79094.78496957713</v>
+        <v>-79094.7849695773</v>
       </c>
       <c r="M6" t="n">
-        <v>-126592.3185645208</v>
+        <v>-126592.3185645206</v>
       </c>
       <c r="N6" t="n">
         <v>20750.35839243495</v>
       </c>
       <c r="O6" t="n">
-        <v>20750.35839243498</v>
+        <v>20750.35839243497</v>
       </c>
       <c r="P6" t="n">
-        <v>20750.35839243502</v>
+        <v>20750.35839243504</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896799</v>
+        <v>885.8132865896808</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977103</v>
+        <v>581.4550298977115</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203979</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202016</v>
+        <v>271.7582728202026</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519938</v>
+        <v>482.1622137519929</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962041</v>
+        <v>317.7411498962053</v>
       </c>
       <c r="E4" t="n">
-        <v>591.253258201938</v>
+        <v>591.2532582019369</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962041</v>
+        <v>317.7411498962051</v>
       </c>
       <c r="M4" t="n">
-        <v>591.253258201938</v>
+        <v>591.2532582019371</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962041</v>
+        <v>317.7411498962053</v>
       </c>
       <c r="M4" t="n">
-        <v>591.253258201938</v>
+        <v>591.2532582019369</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>138.4989215027785</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>174.1254945737342</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>49.64686785561426</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>129.9494113275923</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>102.3004232749778</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>99.36489840833949</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>101.6246675113628</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>139.9227315613168</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590676</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.771411988358302</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>147.5120742225828</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117122</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>199.3912506814373</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>55.06696147117472</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>311.5211477124488</v>
+        <v>313.182919643933</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411815005</v>
+        <v>73.18818411814991</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177535</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493723</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0607682327524</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27941,10 +27941,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>91.4341678971804</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858445</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>100.2109570047243</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>99.11003321229437</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>19.582530644465</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3936111367397</v>
@@ -28029,7 +28029,7 @@
         <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413786</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169637</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.1788263911949</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627545</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2319001807608</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,22 +28087,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.943324095909334e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28324,19 +28324,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28375,19 +28375,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.284991951660654e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.431423500514842e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551474</v>
+        <v>3.561058438551478</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381529</v>
+        <v>36.46968973381534</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522559</v>
+        <v>137.287705452256</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490085</v>
+        <v>302.2403836490088</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528925</v>
+        <v>452.9799873528929</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417123</v>
+        <v>561.9617295417129</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483021</v>
+        <v>625.2907025483026</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368365</v>
+        <v>635.4085598368371</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884902</v>
+        <v>599.9982849884908</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867505</v>
+        <v>512.0846547867511</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561258</v>
+        <v>384.5542494561262</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406592</v>
+        <v>223.6923371406595</v>
       </c>
       <c r="S8" t="n">
-        <v>81.1476191684918</v>
+        <v>81.14761916849189</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475909</v>
+        <v>15.5885333147591</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841179</v>
+        <v>0.2848846750841182</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079689</v>
+        <v>1.905334239079691</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953279</v>
+        <v>18.40151751953281</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234895</v>
+        <v>65.60032358234902</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474368</v>
+        <v>180.012301947437</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657759</v>
+        <v>307.6696959657763</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247369</v>
+        <v>413.6998750247373</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913755</v>
+        <v>482.768241191376</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139758</v>
+        <v>495.5456800139763</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059469</v>
+        <v>453.3274845059473</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730329</v>
+        <v>363.8352723730333</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726986</v>
+        <v>243.2142442726988</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053162</v>
+        <v>118.2978574053163</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799332</v>
+        <v>35.39074781799336</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150147</v>
+        <v>7.679834060150155</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815585</v>
+        <v>0.1253509367815587</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719095</v>
+        <v>1.597368221719096</v>
       </c>
       <c r="H10" t="n">
-        <v>14.2020556440116</v>
+        <v>14.20205564401161</v>
       </c>
       <c r="I10" t="n">
-        <v>48.0372188858797</v>
+        <v>48.03721888587975</v>
       </c>
       <c r="J10" t="n">
-        <v>112.93393327554</v>
+        <v>112.9339332755401</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051821</v>
+        <v>185.5851443051822</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817644</v>
+        <v>237.4850899817646</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191122</v>
+        <v>250.3947295191125</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108867</v>
+        <v>244.440902510887</v>
       </c>
       <c r="O10" t="n">
-        <v>225.78073737535</v>
+        <v>225.7807373753502</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522803</v>
+        <v>193.1944256522805</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750417</v>
+        <v>133.7578062750418</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020583</v>
+        <v>71.8234838602059</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577731</v>
+        <v>27.83777164577733</v>
       </c>
       <c r="T10" t="n">
-        <v>6.82511876552704</v>
+        <v>6.825118765527047</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013254</v>
+        <v>0.08712917573013264</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32324,7 +32324,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>403.8524967138027</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,16 +32549,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32792,10 +32792,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827497113</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>26.13373767211347</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089031</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
@@ -35033,7 +35033,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223222</v>
+        <v>121.1944791223225</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079119</v>
+        <v>232.8901363079124</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717251</v>
+        <v>326.1953145717256</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210294</v>
+        <v>394.9444693210299</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402456</v>
+        <v>405.9954962402462</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668035</v>
+        <v>369.9000735668041</v>
       </c>
       <c r="P8" t="n">
-        <v>280.851659031481</v>
+        <v>280.8516590314816</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816763</v>
+        <v>162.2485595816767</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527124</v>
+        <v>8.106799326527351</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528077009</v>
+        <v>179.2657106211791</v>
       </c>
       <c r="K9" t="n">
-        <v>306.8812974972698</v>
+        <v>169.8282569914173</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448627</v>
+        <v>275.1454952448631</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693572</v>
+        <v>340.6342072693577</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306425</v>
+        <v>364.203967930643</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615024</v>
+        <v>310.7312400615029</v>
       </c>
       <c r="P9" t="n">
-        <v>548.3236335986398</v>
+        <v>331.0683277755639</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.232470186677</v>
+        <v>313.3097579225264</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.14002325267316</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886722</v>
+        <v>19.57475315886734</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792992</v>
+        <v>163.3156524792994</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420805</v>
+        <v>265.0751152420808</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809529</v>
+        <v>289.9786064809531</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901153</v>
+        <v>288.5730748901155</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893896</v>
+        <v>250.3658652893899</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171738</v>
+        <v>190.472984917174</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334729</v>
+        <v>47.59576302334743</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>272.5107846304694</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36440,10 +36440,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
         <v>101.892590396165</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
